--- a/C0LLER_0330/COLLER2fel.xlsx
+++ b/C0LLER_0330/COLLER2fel.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.IIT.000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
   <si>
     <t>Clock tick</t>
   </si>
@@ -58,12 +58,24 @@
   <si>
     <t>running after</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,7 +86,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -90,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -135,36 +155,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -316,6 +306,45 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -329,11 +358,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -342,60 +371,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,135 +719,1200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="11" width="15.42578125" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>60</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>60</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="B3" s="20">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>60</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>60</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="B4" s="12">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>60</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>60</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>60</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>60</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>60</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>60</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>60</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12">
+        <v>60</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>60</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>60</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>60</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>60</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>60</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>60</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>60</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>60</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>60</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
+        <v>60</v>
+      </c>
+      <c r="C9" s="16">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>60</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>60</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>60</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>60</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>60</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>60</v>
+      </c>
+      <c r="C11" s="16">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>60</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>60</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>60</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12">
+        <v>60</v>
+      </c>
+      <c r="C12" s="16">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>60</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>60</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12">
+        <v>60</v>
+      </c>
+      <c r="C13" s="16">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12">
+        <v>60</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>60</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>60</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12">
+        <v>60</v>
+      </c>
+      <c r="C14" s="16">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>60</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>60</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>60</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>60</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>60</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>60</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12">
+        <v>60</v>
+      </c>
+      <c r="C16" s="16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12">
+        <v>60</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>60</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>60</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12">
+        <v>60</v>
+      </c>
+      <c r="C17" s="16">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12">
+        <v>60</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>60</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>60</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16">
+        <v>15</v>
+      </c>
+      <c r="D18" s="12">
+        <v>60</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>60</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>60</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12">
+        <v>60</v>
+      </c>
+      <c r="C19" s="16">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>60</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>60</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>99</v>
+      </c>
+      <c r="B21" s="12">
+        <v>60</v>
+      </c>
+      <c r="C21" s="16">
+        <v>99</v>
+      </c>
+      <c r="D21" s="12">
+        <v>60</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>60</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>60</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>100</v>
+      </c>
+      <c r="B22" s="12">
+        <v>85</v>
+      </c>
+      <c r="C22" s="16">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12">
+        <v>60</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>60</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>60</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>101</v>
+      </c>
+      <c r="B23" s="12">
+        <v>85</v>
+      </c>
+      <c r="C23" s="16">
+        <v>50</v>
+      </c>
+      <c r="D23" s="12">
+        <v>60</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>60</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>60</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>102</v>
+      </c>
+      <c r="B24" s="12">
+        <v>85</v>
+      </c>
+      <c r="C24" s="16">
+        <v>50</v>
+      </c>
+      <c r="D24" s="12">
+        <v>60</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>60</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>60</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>103</v>
+      </c>
+      <c r="B25" s="12">
+        <v>85</v>
+      </c>
+      <c r="C25" s="16">
+        <v>50</v>
+      </c>
+      <c r="D25" s="12">
+        <v>60</v>
+      </c>
+      <c r="E25" s="18">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>60</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>60</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>104</v>
+      </c>
+      <c r="B26" s="12">
+        <v>85</v>
+      </c>
+      <c r="C26" s="16">
+        <v>50</v>
+      </c>
+      <c r="D26" s="12">
+        <v>60</v>
+      </c>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="12">
+        <v>60</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>60</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>105</v>
+      </c>
+      <c r="B27" s="12">
+        <v>85</v>
+      </c>
+      <c r="C27" s="16">
+        <v>50</v>
+      </c>
+      <c r="D27" s="12">
+        <v>60</v>
+      </c>
+      <c r="E27" s="18">
+        <v>5</v>
+      </c>
+      <c r="F27" s="12">
+        <v>60</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>60</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>199</v>
+      </c>
+      <c r="B29" s="12">
+        <v>85</v>
+      </c>
+      <c r="C29" s="16">
+        <v>50</v>
+      </c>
+      <c r="D29" s="20">
+        <v>60</v>
+      </c>
+      <c r="E29" s="16">
+        <v>99</v>
+      </c>
+      <c r="F29" s="12">
+        <v>60</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>60</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>200</v>
+      </c>
+      <c r="B30" s="12">
+        <v>85</v>
+      </c>
+      <c r="C30" s="16">
+        <v>50</v>
+      </c>
+      <c r="D30" s="12">
+        <v>85</v>
+      </c>
+      <c r="E30" s="16">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12">
+        <v>60</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>60</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>201</v>
+      </c>
+      <c r="B31" s="12">
+        <v>85</v>
+      </c>
+      <c r="C31" s="16">
+        <v>50</v>
+      </c>
+      <c r="D31" s="12">
+        <v>85</v>
+      </c>
+      <c r="E31" s="16">
+        <v>50</v>
+      </c>
+      <c r="F31" s="12">
+        <v>60</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
+        <v>60</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>202</v>
+      </c>
+      <c r="B32" s="12">
+        <v>85</v>
+      </c>
+      <c r="C32" s="16">
+        <v>50</v>
+      </c>
+      <c r="D32" s="12">
+        <v>85</v>
+      </c>
+      <c r="E32" s="16">
+        <v>50</v>
+      </c>
+      <c r="F32" s="12">
+        <v>60</v>
+      </c>
+      <c r="G32" s="18">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>60</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>299</v>
+      </c>
+      <c r="B34" s="12">
+        <v>85</v>
+      </c>
+      <c r="C34" s="16">
+        <v>50</v>
+      </c>
+      <c r="D34" s="12">
+        <v>85</v>
+      </c>
+      <c r="E34" s="16">
+        <v>50</v>
+      </c>
+      <c r="F34" s="12">
+        <v>60</v>
+      </c>
+      <c r="G34" s="16">
+        <v>99</v>
+      </c>
+      <c r="H34" s="12">
+        <v>60</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>300</v>
+      </c>
+      <c r="B35" s="12">
+        <v>85</v>
+      </c>
+      <c r="C35" s="16">
+        <v>50</v>
+      </c>
+      <c r="D35" s="12">
+        <v>85</v>
+      </c>
+      <c r="E35" s="16">
+        <v>50</v>
+      </c>
+      <c r="F35" s="12">
+        <v>85</v>
+      </c>
+      <c r="G35" s="16">
+        <v>50</v>
+      </c>
+      <c r="H35" s="12">
+        <v>60</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>301</v>
+      </c>
+      <c r="B36" s="12">
+        <v>85</v>
+      </c>
+      <c r="C36" s="16">
+        <v>50</v>
+      </c>
+      <c r="D36" s="12">
+        <v>85</v>
+      </c>
+      <c r="E36" s="16">
+        <v>50</v>
+      </c>
+      <c r="F36" s="12">
+        <v>85</v>
+      </c>
+      <c r="G36" s="18">
+        <v>50</v>
+      </c>
+      <c r="H36" s="12">
+        <v>60</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
